--- a/public/docs/TABELA_PERCENTUAL_APOSTAS_VENCEDORAS.xlsx
+++ b/public/docs/TABELA_PERCENTUAL_APOSTAS_VENCEDORAS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="20730" windowHeight="10050"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -408,7 +408,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,11 +434,11 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4">
         <f>(C3*100)/$C$5</f>
-        <v>16.666666666666668</v>
+        <v>6.4615384615384617</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -446,11 +446,11 @@
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>20</v>
+        <v>304</v>
       </c>
       <c r="D4" s="4">
         <f>(C4*100)/$C$5</f>
-        <v>83.333333333333329</v>
+        <v>93.538461538461533</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -459,7 +459,7 @@
       </c>
       <c r="C5" s="3">
         <f>SUM(C3:C4)</f>
-        <v>24</v>
+        <v>325</v>
       </c>
       <c r="D5" s="3">
         <f>SUM(D3:D4)</f>

--- a/public/docs/TABELA_PERCENTUAL_APOSTAS_VENCEDORAS.xlsx
+++ b/public/docs/TABELA_PERCENTUAL_APOSTAS_VENCEDORAS.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,11 +434,11 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4">
         <f>(C3*100)/$C$5</f>
-        <v>6.4615384615384617</v>
+        <v>12.068965517241379</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -446,11 +446,11 @@
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>304</v>
+        <v>51</v>
       </c>
       <c r="D4" s="4">
         <f>(C4*100)/$C$5</f>
-        <v>93.538461538461533</v>
+        <v>87.931034482758619</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -459,7 +459,7 @@
       </c>
       <c r="C5" s="3">
         <f>SUM(C3:C4)</f>
-        <v>325</v>
+        <v>58</v>
       </c>
       <c r="D5" s="3">
         <f>SUM(D3:D4)</f>
